--- a/pythonProject/PanelsF.xlsx
+++ b/pythonProject/PanelsF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\PycharmProjects\Packages\pythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3809D416-169B-4F85-AAF3-1050D127FA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C33AF43-DBEB-44BC-9FD9-871531632431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,15 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="8">
   <si>
-    <t>Πάχος φελιζόλ 80/100mm</t>
-  </si>
-  <si>
-    <t>Πάχος Panel</t>
-  </si>
-  <si>
-    <t>Τεμάχια ανα δέμα</t>
-  </si>
-  <si>
     <t>PR</t>
   </si>
   <si>
@@ -54,10 +45,19 @@
     <t>PT</t>
   </si>
   <si>
-    <t xml:space="preserve">PW </t>
+    <t>PF</t>
   </si>
   <si>
-    <t>PF</t>
+    <t>PW</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Thick</t>
+  </si>
+  <si>
+    <t>Thick_feli</t>
   </si>
 </sst>
 </file>
@@ -91,8 +91,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -100,14 +99,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="161"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,47 +114,23 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="22"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -170,24 +144,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -505,382 +481,358 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Φύλλο1"/>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="3" width="9.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8">
+        <v>30</v>
+      </c>
+      <c r="C2" s="8">
+        <v>14</v>
+      </c>
+      <c r="D2" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8">
+        <v>40</v>
+      </c>
+      <c r="C3" s="8">
+        <v>12</v>
+      </c>
+      <c r="D3" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="8">
+        <v>50</v>
+      </c>
+      <c r="C4" s="8">
+        <v>10</v>
+      </c>
+      <c r="D4" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="8">
+        <v>60</v>
+      </c>
+      <c r="C5" s="8">
+        <v>8</v>
+      </c>
+      <c r="D5" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="8">
+        <v>80</v>
+      </c>
+      <c r="C6" s="8">
+        <v>6</v>
+      </c>
+      <c r="D6" s="9">
+        <v>100</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="8">
+        <v>100</v>
+      </c>
+      <c r="C7" s="8">
+        <v>6</v>
+      </c>
+      <c r="D7" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="8">
+        <v>120</v>
+      </c>
+      <c r="C8" s="8">
         <v>4</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7" t="s">
+      <c r="D8" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B9" s="8">
+        <v>50</v>
+      </c>
+      <c r="C9" s="8">
+        <v>10</v>
+      </c>
+      <c r="D9" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="8">
+        <v>60</v>
+      </c>
+      <c r="C10" s="8">
+        <v>8</v>
+      </c>
+      <c r="D10" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="8">
+        <v>80</v>
+      </c>
+      <c r="C11" s="8">
+        <v>6</v>
+      </c>
+      <c r="D11" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="8">
+        <v>30</v>
+      </c>
+      <c r="C12" s="8">
+        <v>24</v>
+      </c>
+      <c r="D12" s="9">
+        <v>100</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="8">
+        <v>40</v>
+      </c>
+      <c r="C13" s="8">
+        <v>18</v>
+      </c>
+      <c r="D13" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="8">
+        <v>50</v>
+      </c>
+      <c r="C14" s="8">
+        <v>14</v>
+      </c>
+      <c r="D14" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="8">
+        <v>60</v>
+      </c>
+      <c r="C15" s="8">
+        <v>12</v>
+      </c>
+      <c r="D15" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="8">
+        <v>80</v>
+      </c>
+      <c r="C16" s="8">
+        <v>9</v>
+      </c>
+      <c r="D16" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="8">
+        <v>100</v>
+      </c>
+      <c r="C17" s="8">
+        <v>7</v>
+      </c>
+      <c r="D17" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9">
-        <v>30</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9">
+      <c r="B18" s="8">
+        <v>50</v>
+      </c>
+      <c r="C18" s="8">
         <v>14</v>
       </c>
-      <c r="E2" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="D18" s="9">
+        <v>100</v>
+      </c>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9">
-        <v>40</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9">
-        <v>12</v>
-      </c>
-      <c r="E3" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B19" s="8">
+        <v>80</v>
+      </c>
+      <c r="C19" s="8">
+        <v>9</v>
+      </c>
+      <c r="D19" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9">
-        <v>50</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9">
-        <v>10</v>
-      </c>
-      <c r="E4" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="B20" s="8">
+        <v>100</v>
+      </c>
+      <c r="C20" s="8">
+        <v>7</v>
+      </c>
+      <c r="D20" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="9">
-        <v>60</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9">
-        <v>8</v>
-      </c>
-      <c r="E5" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="B21" s="8">
+        <v>120</v>
+      </c>
+      <c r="C21" s="8">
+        <v>6</v>
+      </c>
+      <c r="D21" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="9">
-        <v>80</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9">
-        <v>6</v>
-      </c>
-      <c r="E6" s="6">
-        <v>100</v>
-      </c>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="B22" s="8">
+        <v>150</v>
+      </c>
+      <c r="C22" s="8">
+        <v>5</v>
+      </c>
+      <c r="D22" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="9">
-        <v>100</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9">
-        <v>6</v>
-      </c>
-      <c r="E7" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="B23" s="8">
+        <v>180</v>
+      </c>
+      <c r="C23" s="8">
+        <v>4</v>
+      </c>
+      <c r="D23" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="9">
-        <v>120</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9">
+      <c r="B24" s="8">
+        <v>200</v>
+      </c>
+      <c r="C24" s="8">
         <v>4</v>
       </c>
-      <c r="E8" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="9">
-        <v>50</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9">
-        <v>10</v>
-      </c>
-      <c r="E9" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="9">
-        <v>60</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9">
-        <v>8</v>
-      </c>
-      <c r="E10" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="9">
-        <v>80</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9">
-        <v>6</v>
-      </c>
-      <c r="E11" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="9">
-        <v>30</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9">
-        <v>24</v>
-      </c>
-      <c r="E12" s="6">
-        <v>100</v>
-      </c>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="9">
-        <v>40</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9">
-        <v>18</v>
-      </c>
-      <c r="E13" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="9">
-        <v>50</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9">
-        <v>14</v>
-      </c>
-      <c r="E14" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="9">
-        <v>60</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9">
-        <v>12</v>
-      </c>
-      <c r="E15" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="9">
-        <v>80</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9">
-        <v>9</v>
-      </c>
-      <c r="E16" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="9">
-        <v>100</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9">
-        <v>7</v>
-      </c>
-      <c r="E17" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="9">
-        <v>50</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9">
-        <v>14</v>
-      </c>
-      <c r="E18" s="6">
-        <v>100</v>
-      </c>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="9">
-        <v>80</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9">
-        <v>9</v>
-      </c>
-      <c r="E19" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="9">
-        <v>100</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9">
-        <v>7</v>
-      </c>
-      <c r="E20" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="9">
-        <v>120</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9">
-        <v>6</v>
-      </c>
-      <c r="E21" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="9">
-        <v>150</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9">
-        <v>5</v>
-      </c>
-      <c r="E22" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="9">
-        <v>180</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9">
-        <v>4</v>
-      </c>
-      <c r="E23" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="9">
-        <v>200</v>
-      </c>
-      <c r="C24" s="9"/>
       <c r="D24" s="9">
-        <v>4</v>
-      </c>
-      <c r="E24" s="6">
         <v>100</v>
       </c>
     </row>
